--- a/REACH_SOM_DSA_VIII_Field_Dashboard/data/Field team work distribution.xlsx
+++ b/REACH_SOM_DSA_VIII_Field_Dashboard/data/Field team work distribution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted.sharepoint.com/sites/IMPACTSOM/Documents partages/General/02_Research/01_REACH/2024_25/03_DDSU/SOM2204 _DSA VIII 2025/03_Data_Analysis/DSA_VIII_Scripts/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.stephenson\Downloads\DSA_VIII_Monitoring\REACH_SOM_DSA_VIII_Field_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{C9CE5658-CFF4-41D4-A268-906D01198B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359AC8EF-D962-4181-85BD-CED7A89D047B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF896C4-4EE8-433F-B638-A37B3769EC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{9F959C17-EEFE-49A7-9E77-2FDBAFFFADD4}"/>
   </bookViews>
@@ -360,10 +360,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -663,11 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912084FF-F4EE-4F6A-8FF5-A6783806EA11}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="C28:D46"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>16</v>
       </c>
@@ -705,7 +700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21</v>
       </c>
@@ -719,7 +714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>25</v>
       </c>
@@ -733,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -747,7 +742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>58</v>
       </c>
@@ -761,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -772,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>19</v>
       </c>
@@ -789,7 +784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -800,10 +795,10 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>26</v>
       </c>
@@ -817,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>54</v>
       </c>
@@ -831,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -842,7 +837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>57</v>
       </c>
@@ -856,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>34</v>
       </c>
@@ -870,7 +865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -881,10 +876,10 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>62</v>
       </c>
@@ -898,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>32</v>
       </c>
@@ -912,7 +907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>53</v>
       </c>
@@ -926,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10</v>
       </c>
@@ -940,7 +935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -951,7 +946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>45</v>
       </c>
@@ -965,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>46</v>
       </c>
@@ -979,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>64</v>
       </c>
@@ -993,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>65</v>
       </c>
@@ -1007,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1013,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>29</v>
       </c>
@@ -1032,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>66</v>
       </c>
@@ -1057,7 +1052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>48</v>
       </c>
@@ -1082,7 +1077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>11</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>27</v>
       </c>
@@ -1110,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>43</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>41</v>
       </c>
@@ -1138,7 +1133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>30</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>31</v>
       </c>
@@ -1166,7 +1161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>21</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>55</v>
       </c>
@@ -1202,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>44</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>8</v>
       </c>
@@ -1249,10 +1244,10 @@
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1263,10 +1258,10 @@
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>22</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>24</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>51</v>
       </c>
@@ -1327,7 +1322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>59</v>
       </c>
@@ -1341,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>28</v>
       </c>
@@ -1355,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>20</v>
       </c>
@@ -1369,7 +1364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>63</v>
       </c>
@@ -1383,7 +1378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>12</v>
       </c>
@@ -1397,7 +1392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>36</v>
       </c>
@@ -1411,7 +1406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>61</v>
       </c>
@@ -1436,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>21</v>
       </c>
@@ -1447,7 +1442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>50</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>21</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>14</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>17</v>
       </c>
@@ -1511,7 +1506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>21</v>
       </c>
@@ -1522,7 +1517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>49</v>
       </c>
@@ -1536,7 +1531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>49</v>
       </c>
@@ -1550,7 +1545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>60</v>
       </c>
@@ -1575,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>61</v>
       </c>
@@ -1590,20 +1585,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D69" xr:uid="{912084FF-F4EE-4F6A-8FF5-A6783806EA11}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Mogadishu Dayniile"/>
-        <filter val="Mogadishu Khada"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D69" xr:uid="{912084FF-F4EE-4F6A-8FF5-A6783806EA11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064B5BF8B0F90A143B1A4ACAD04008153" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2d52f37336c5c3d67f6aee7fcfa9c828">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30973102-2308-455b-8e1f-b6a90edc3b23" xmlns:ns3="947c1918-d5ab-48a1-8b61-0d52f2f99fd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8cb13efdaa903371293ba4bc1418339a" ns2:_="" ns3:_="">
     <xsd:import namespace="30973102-2308-455b-8e1f-b6a90edc3b23"/>
@@ -1838,15 +1835,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1859,6 +1847,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D95F33-9790-4A54-82C2-21BD6CB97182}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DBA0D03-8359-4962-9910-F6B15358D856}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1873,14 +1869,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D95F33-9790-4A54-82C2-21BD6CB97182}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
